--- a/converting-test-cases.xlsx
+++ b/converting-test-cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seneca-my.sharepoint.com/personal/hxiao15_myseneca_ca/Documents/SENECA/CPR101NNN/Final Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seneca-my.sharepoint.com/personal/hxiao15_myseneca_ca/Documents/SENECA/CPR101NNN/Final Project/Project Source Code/Project new code in 2224/FinalProjectCPR/FinalProjectCPR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="13_ncr:1_{AF7501F5-17D9-44E9-B635-1D850C3927CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C73DD980-0322-4C4D-8414-31A6F99A3066}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="13_ncr:1_{AF7501F5-17D9-44E9-B635-1D850C3927CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60AE7F1D-6339-4D0D-8397-1C40DC42FA6D}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="4050" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28650" yWindow="4305" windowWidth="28755" windowHeight="15570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example to be deleted" sheetId="2" r:id="rId1"/>
@@ -1023,7 +1023,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="82">
   <si>
     <t>Comments</t>
   </si>
@@ -1249,6 +1249,64 @@
   </si>
   <si>
     <t>atoi' cannot handle correctly; it stops converting at the first non-digit character. Call removeSpaces(intString) to remove spaces within string.</t>
+  </si>
+  <si>
+    <t>intString = "12.34"</t>
+  </si>
+  <si>
+    <t>double Number = 12.340000</t>
+  </si>
+  <si>
+    <t>+Test normal case, random positive double input</t>
+  </si>
+  <si>
+    <t>intNumber =-55555555555555</t>
+  </si>
+  <si>
+    <t>intNumber = 55555555555555</t>
+  </si>
+  <si>
+    <t>intNumber = 12344321</t>
+  </si>
+  <si>
+    <t>Hanfu Xiao
+12/6/2023</t>
+  </si>
+  <si>
+    <t>+Test normal case, a positive double input less than 1</t>
+  </si>
+  <si>
+    <t>double Number = 0.123456</t>
+  </si>
+  <si>
+    <t>intString = ".123456"</t>
+  </si>
+  <si>
+    <t>+Test normal case, a random double input with space bettween numbers</t>
+  </si>
+  <si>
+    <t>intString = ".123 456"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> double Number = 0.123000</t>
+  </si>
+  <si>
+    <t>- Random double input with more than 6 digits</t>
+  </si>
+  <si>
+    <t>double Number =0.123456789795643</t>
+  </si>
+  <si>
+    <t>intString = "0.12345678979564321"</t>
+  </si>
+  <si>
+    <t>double Number = 0.123457</t>
+  </si>
+  <si>
+    <t>function atof can't deal with ' ' space character in strings.</t>
+  </si>
+  <si>
+    <t>Switch type to long double</t>
   </si>
 </sst>
 </file>
@@ -1768,6 +1826,12 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1779,12 +1843,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2144,22 +2202,22 @@
       <c r="B1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="44" t="str">
+      <c r="C1" s="46" t="str">
         <f>"Do not save or use this worksheet – sample test cases only"</f>
         <v>Do not save or use this worksheet – sample test cases only</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:8" s="11" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
       <c r="E2" s="30"/>
       <c r="F2" s="18" t="s">
         <v>11</v>
@@ -2349,8 +2407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489FCF92-76BB-4101-9D49-11677A4362B7}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2371,23 +2429,23 @@
       <c r="B1" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="44" t="str">
+      <c r="C1" s="46" t="str">
         <f>"Save As " &amp; B1  &amp; "_test_cases.xlsx"</f>
         <v>Save As Converting_test_cases.xlsx</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="20" t="s">
         <v>11</v>
       </c>
@@ -2498,13 +2556,16 @@
       <c r="A8" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="42" t="s">
         <v>56</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>61</v>
       </c>
       <c r="F8" s="25" t="s">
@@ -2525,9 +2586,11 @@
         <v>52</v>
       </c>
       <c r="D9" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="23"/>
       <c r="F9" s="25" t="s">
         <v>55</v>
       </c>
@@ -2543,29 +2606,31 @@
         <v>59</v>
       </c>
       <c r="D10" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="23"/>
       <c r="F10" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="43" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
       <c r="F11" s="20" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -2591,29 +2656,87 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
+    <row r="13" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>64</v>
+      </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="25"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
+      <c r="F13" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>71</v>
+      </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="25"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="25"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="25"/>
+      <c r="F14" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
@@ -2628,13 +2751,13 @@
       <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
       <c r="F19" s="20" t="s">
         <v>11</v>
       </c>
@@ -2742,6 +2865,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="df431c25-db36-4756-9d03-509d846dffb4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C3E31BB71A2B164685E96F74BFA633A1" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4a117467e738e0a0435fde24d77b17d0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="df431c25-db36-4756-9d03-509d846dffb4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67d1d0c7bfd9692f7a88c3d3b8c61765" ns2:_="">
     <xsd:import namespace="df431c25-db36-4756-9d03-509d846dffb4"/>
@@ -2907,33 +3049,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="df431c25-db36-4756-9d03-509d846dffb4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EA72901-887A-4709-81EC-2094AF1A91D1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FD0DBFE-48F2-4231-83B4-3D0937D95BE0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="df431c25-db36-4756-9d03-509d846dffb4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4AF9B98-2E1E-46E2-AFBC-EDA277986517}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4AF9B98-2E1E-46E2-AFBC-EDA277986517}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FD0DBFE-48F2-4231-83B4-3D0937D95BE0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EA72901-887A-4709-81EC-2094AF1A91D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="df431c25-db36-4756-9d03-509d846dffb4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/converting-test-cases.xlsx
+++ b/converting-test-cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seneca-my.sharepoint.com/personal/hxiao15_myseneca_ca/Documents/SENECA/CPR101NNN/Final Project/Project Source Code/Project new code in 2224/FinalProjectCPR/FinalProjectCPR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="13_ncr:1_{AF7501F5-17D9-44E9-B635-1D850C3927CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60AE7F1D-6339-4D0D-8397-1C40DC42FA6D}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="13_ncr:1_{AF7501F5-17D9-44E9-B635-1D850C3927CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{725A4C70-0F27-4FCB-AE71-CE1D16CFEFCE}"/>
   <bookViews>
     <workbookView xWindow="-28650" yWindow="4305" windowWidth="28755" windowHeight="15570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1023,7 +1023,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="90">
   <si>
     <t>Comments</t>
   </si>
@@ -1307,6 +1307,30 @@
   </si>
   <si>
     <t>Switch type to long double</t>
+  </si>
+  <si>
+    <t>Long holds same size of numbers in C as Int for some reason. Should use 'long long'</t>
+  </si>
+  <si>
+    <t>intString= "12345678987654321"</t>
+  </si>
+  <si>
+    <t>long Number =12345678987654321</t>
+  </si>
+  <si>
+    <t>long Number = 2147483647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+convert random large string type integer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">+convert random int size string type long </t>
+  </si>
+  <si>
+    <t>intString= "123456789"</t>
+  </si>
+  <si>
+    <t>long Number =123456789</t>
   </si>
 </sst>
 </file>
@@ -1911,6 +1935,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2407,8 +2435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489FCF92-76BB-4101-9D49-11677A4362B7}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2788,17 +2816,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="25"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
+    <row r="21" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>89</v>
+      </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="25"/>
+      <c r="F22" s="25" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
@@ -2865,25 +2922,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="df431c25-db36-4756-9d03-509d846dffb4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C3E31BB71A2B164685E96F74BFA633A1" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4a117467e738e0a0435fde24d77b17d0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="df431c25-db36-4756-9d03-509d846dffb4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67d1d0c7bfd9692f7a88c3d3b8c61765" ns2:_="">
     <xsd:import namespace="df431c25-db36-4756-9d03-509d846dffb4"/>
@@ -3049,25 +3087,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FD0DBFE-48F2-4231-83B4-3D0937D95BE0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="df431c25-db36-4756-9d03-509d846dffb4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4AF9B98-2E1E-46E2-AFBC-EDA277986517}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="df431c25-db36-4756-9d03-509d846dffb4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EA72901-887A-4709-81EC-2094AF1A91D1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3083,4 +3122,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4AF9B98-2E1E-46E2-AFBC-EDA277986517}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FD0DBFE-48F2-4231-83B4-3D0937D95BE0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="df431c25-db36-4756-9d03-509d846dffb4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/converting-test-cases.xlsx
+++ b/converting-test-cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seneca-my.sharepoint.com/personal/hxiao15_myseneca_ca/Documents/SENECA/CPR101NNN/Final Project/Project Source Code/Project new code in 2224/FinalProjectCPR/FinalProjectCPR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="13_ncr:1_{AF7501F5-17D9-44E9-B635-1D850C3927CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{725A4C70-0F27-4FCB-AE71-CE1D16CFEFCE}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="13_ncr:1_{AF7501F5-17D9-44E9-B635-1D850C3927CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5656D199-8940-4214-BF6A-AD2D348F63C0}"/>
   <bookViews>
     <workbookView xWindow="-28650" yWindow="4305" windowWidth="28755" windowHeight="15570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1023,7 +1023,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="89">
   <si>
     <t>Comments</t>
   </si>
@@ -1166,10 +1166,6 @@
   </si>
   <si>
     <t>Sample Test Cases</t>
-  </si>
-  <si>
-    <t>????? Tester's Name ?????
-????? Date ?????</t>
   </si>
   <si>
     <t>Converting</t>
@@ -2435,8 +2431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489FCF92-76BB-4101-9D49-11677A4362B7}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2455,7 +2451,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="46" t="str">
         <f>"Save As " &amp; B1  &amp; "_test_cases.xlsx"</f>
@@ -2478,7 +2474,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -2506,16 +2502,16 @@
     </row>
     <row r="4" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="D4" s="23" t="s">
         <v>40</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>41</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="25" t="s">
@@ -2525,16 +2521,16 @@
     </row>
     <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>50</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="25" t="s">
@@ -2544,16 +2540,16 @@
     </row>
     <row r="6" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>42</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>43</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="25" t="s">
@@ -2563,16 +2559,16 @@
     </row>
     <row r="7" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="D7" s="23" t="s">
         <v>46</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>47</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="25" t="s">
@@ -2582,68 +2578,68 @@
     </row>
     <row r="8" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="D9" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>53</v>
-      </c>
       <c r="F9" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>59</v>
-      </c>
       <c r="D10" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -2658,7 +2654,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -2686,16 +2682,16 @@
     </row>
     <row r="13" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>63</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>64</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="25" t="s">
@@ -2704,16 +2700,16 @@
     </row>
     <row r="14" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="23" t="s">
         <v>70</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>71</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="25" t="s">
@@ -2722,48 +2718,48 @@
     </row>
     <row r="15" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="D15" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="F15" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="F16" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -2790,7 +2786,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -2818,39 +2814,39 @@
     </row>
     <row r="21" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="E21" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="23" t="s">
-        <v>85</v>
-      </c>
       <c r="F21" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="D22" s="23" t="s">
         <v>88</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>89</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="25" t="s">
@@ -3088,15 +3084,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="df431c25-db36-4756-9d03-509d846dffb4">
@@ -3104,6 +3091,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3125,14 +3121,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4AF9B98-2E1E-46E2-AFBC-EDA277986517}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FD0DBFE-48F2-4231-83B4-3D0937D95BE0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3140,4 +3128,12 @@
     <ds:schemaRef ds:uri="df431c25-db36-4756-9d03-509d846dffb4"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4AF9B98-2E1E-46E2-AFBC-EDA277986517}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>